--- a/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
+++ b/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
+++ b/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,7 +106,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl</t>
+    <t>http://purl.obolibrary.org/obo/ncit.owl</t>
   </si>
   <si>
     <t>https://fhir.cqdg.ca/CodeSystem/cqdg-specimen-missing-codes</t>

--- a/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
+++ b/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
+++ b/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
+++ b/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
+++ b/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
+++ b/docs/ValueSet-cqdg-specimen-tissue-source-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
